--- a/test/api/queries/Report/hello world.xlsx
+++ b/test/api/queries/Report/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>INSTITUTO TECNOLOGICO JOSE MARIO MOLINA PASQUEL Y HENRIQUEZ</t>
   </si>
@@ -23,46 +23,46 @@
     <t>Reporte De asistencia personal docente Campus Tala</t>
   </si>
   <si>
+    <t>Fecha: 25-01-2019</t>
+  </si>
+  <si>
     <t>Periodo 2018 al 2019 typereport del 03-12-2018 al 15-01-2019</t>
   </si>
   <si>
-    <t>Extension:</t>
-  </si>
-  <si>
-    <t>Tala</t>
-  </si>
-  <si>
-    <t>Tipo de reporte:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Por materia</t>
-  </si>
-  <si>
-    <t>Docente:</t>
-  </si>
-  <si>
-    <t>Juan Luis Rivaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha: </t>
-  </si>
-  <si>
-    <t>24-01-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora: </t>
-  </si>
-  <si>
-    <t>22:06</t>
+    <t>Hora: 21:25</t>
+  </si>
+  <si>
+    <t>Extension: Tala</t>
+  </si>
+  <si>
+    <t>Tipo de reporte: Por materia</t>
+  </si>
+  <si>
+    <t>Docente: Juan Luis Rivaz</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Docente</t>
   </si>
   <si>
     <t>Hora</t>
   </si>
   <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Docente</t>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>Asistencia</t>
+  </si>
+  <si>
+    <t>Tema/Actividad</t>
+  </si>
+  <si>
+    <t>Materia</t>
+  </si>
+  <si>
+    <t>Total de horas</t>
   </si>
   <si>
     <t>Entrada</t>
@@ -74,16 +74,49 @@
     <t>Grupo</t>
   </si>
   <si>
-    <t>Asistencia</t>
-  </si>
-  <si>
-    <t>Tema/Actividad</t>
-  </si>
-  <si>
-    <t>Materia</t>
-  </si>
-  <si>
-    <t>Total de horas</t>
+    <t>ISIC</t>
+  </si>
+  <si>
+    <t>hello World!</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>justificado</t>
+  </si>
+  <si>
+    <t>tema</t>
+  </si>
+  <si>
+    <t>Taller de etica</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>presente</t>
+  </si>
+  <si>
+    <t>retardo</t>
+  </si>
+  <si>
+    <t>17:01</t>
+  </si>
+  <si>
+    <t>ausente</t>
+  </si>
+  <si>
+    <t>qqq</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>sssss</t>
   </si>
 </sst>
 </file>
@@ -91,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -119,6 +152,15 @@
       <color rgb="FF#000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF#000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,13 +173,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="#000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -146,6 +202,12 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,22 +508,23 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.854492" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.42627" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.568115" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="14.996338" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20.423584" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="20.423584" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -473,85 +536,295 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/api/queries/Report/hello world.xlsx
+++ b/test/api/queries/Report/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>INSTITUTO TECNOLOGICO JOSE MARIO MOLINA PASQUEL Y HENRIQUEZ</t>
   </si>
@@ -23,13 +23,13 @@
     <t>Reporte De asistencia personal docente Campus Tala</t>
   </si>
   <si>
-    <t>Fecha: 25-01-2019</t>
+    <t>Fecha: 11-02-2019</t>
   </si>
   <si>
     <t>Periodo 2018 al 2019 typereport del 03-12-2018 al 15-01-2019</t>
   </si>
   <si>
-    <t>Hora: 21:25</t>
+    <t>Hora: 17:44</t>
   </si>
   <si>
     <t>Extension: Tala</t>
@@ -72,51 +72,6 @@
   </si>
   <si>
     <t>Grupo</t>
-  </si>
-  <si>
-    <t>ISIC</t>
-  </si>
-  <si>
-    <t>hello World!</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>08:40</t>
-  </si>
-  <si>
-    <t>justificado</t>
-  </si>
-  <si>
-    <t>tema</t>
-  </si>
-  <si>
-    <t>Taller de etica</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>presente</t>
-  </si>
-  <si>
-    <t>retardo</t>
-  </si>
-  <si>
-    <t>17:01</t>
-  </si>
-  <si>
-    <t>ausente</t>
-  </si>
-  <si>
-    <t>qqq</t>
-  </si>
-  <si>
-    <t>17:25</t>
-  </si>
-  <si>
-    <t>sssss</t>
   </si>
 </sst>
 </file>
@@ -193,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -205,9 +160,6 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,22 +460,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:I15"/>
+      <selection activeCell="A6" sqref="A6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="17.709961" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.854492" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.854492" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.42627" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13.568115" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="14.996338" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="20.423584" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10.854492" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="20.423584" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -602,210 +554,6 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/test/api/queries/Report/hello world.xlsx
+++ b/test/api/queries/Report/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>INSTITUTO TECNOLOGICO JOSE MARIO MOLINA PASQUEL Y HENRIQUEZ</t>
   </si>
@@ -23,19 +23,19 @@
     <t>Reporte De asistencia personal docente Campus Tala</t>
   </si>
   <si>
-    <t>Fecha: 11-02-2019</t>
-  </si>
-  <si>
-    <t>Periodo 2018 al 2019 typereport del 03-12-2018 al 15-01-2019</t>
-  </si>
-  <si>
-    <t>Hora: 17:44</t>
+    <t>Fecha: 12-02-2019</t>
+  </si>
+  <si>
+    <t>Periodo 2018 al 2019 Semanal del 05-02-2019 al 12-02-2019</t>
+  </si>
+  <si>
+    <t>Hora: 23:24</t>
   </si>
   <si>
     <t>Extension: Tala</t>
   </si>
   <si>
-    <t>Tipo de reporte: Por materia</t>
+    <t>Tipo de reporte: Por docente</t>
   </si>
   <si>
     <t>Docente: Juan Luis Rivaz</t>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>Grupo</t>
+  </si>
+  <si>
+    <t>ISIC</t>
+  </si>
+  <si>
+    <t>hello World!</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>presente</t>
+  </si>
+  <si>
+    <t>lala</t>
+  </si>
+  <si>
+    <t>Calculo vectorial</t>
   </si>
 </sst>
 </file>
@@ -148,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -160,6 +181,9 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,47 +484,47 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:I7"/>
+      <selection activeCell="A6" sqref="A6:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="17.709961" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.854492" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.854492" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.42627" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13.568115" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="14.996338" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="20.423584" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10.854492" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="20.423584" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -511,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -538,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -555,17 +579,44 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>

--- a/test/api/queries/Report/hello world.xlsx
+++ b/test/api/queries/Report/hello world.xlsx
@@ -29,7 +29,7 @@
     <t>Periodo 2018 al 2019 Semanal del 05-02-2019 al 12-02-2019</t>
   </si>
   <si>
-    <t>Hora: 23:24</t>
+    <t>Hora: 23:41</t>
   </si>
   <si>
     <t>Extension: Tala</t>

--- a/test/api/queries/Report/hello world.xlsx
+++ b/test/api/queries/Report/hello world.xlsx
@@ -23,13 +23,13 @@
     <t>Reporte De asistencia personal docente Campus Tala</t>
   </si>
   <si>
-    <t>Fecha: 12-02-2019</t>
-  </si>
-  <si>
-    <t>Periodo 2018 al 2019 Semanal del 05-02-2019 al 12-02-2019</t>
-  </si>
-  <si>
-    <t>Hora: 23:41</t>
+    <t>Fecha: 13-02-2019</t>
+  </si>
+  <si>
+    <t>Periodo 2018 al 2019 Semanal del 06-02-2019 al 13-02-2019</t>
+  </si>
+  <si>
+    <t>Hora: 14:36</t>
   </si>
   <si>
     <t>Extension: Tala</t>
@@ -484,10 +484,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:I8"/>
+      <selection activeCell="A6" sqref="A6:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -608,10 +608,184 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:B4"/>

--- a/test/api/queries/Report/hello world.xlsx
+++ b/test/api/queries/Report/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>INSTITUTO TECNOLOGICO JOSE MARIO MOLINA PASQUEL Y HENRIQUEZ</t>
   </si>
@@ -23,13 +23,13 @@
     <t>Reporte De asistencia personal docente Campus Tala</t>
   </si>
   <si>
-    <t>Fecha: 13-02-2019</t>
-  </si>
-  <si>
-    <t>Periodo 2018 al 2019 Semanal del 06-02-2019 al 13-02-2019</t>
-  </si>
-  <si>
-    <t>Hora: 14:36</t>
+    <t>Fecha: 16-02-2019</t>
+  </si>
+  <si>
+    <t>Periodo 2018 al 2019 Semanal del 09-02-2019 al 16-02-2019</t>
+  </si>
+  <si>
+    <t>Hora: 18:02</t>
   </si>
   <si>
     <t>Extension: Tala</t>
@@ -38,7 +38,7 @@
     <t>Tipo de reporte: Por docente</t>
   </si>
   <si>
-    <t>Docente: Juan Luis Rivaz</t>
+    <t>Docente: Juan Luis</t>
   </si>
   <si>
     <t>Departamento</t>
@@ -89,10 +89,16 @@
     <t>presente</t>
   </si>
   <si>
-    <t>lala</t>
-  </si>
-  <si>
-    <t>Calculo vectorial</t>
+    <t xml:space="preserve">Tema </t>
+  </si>
+  <si>
+    <t>Taller de etica</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:20</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:I14"/>
+      <selection activeCell="A6" sqref="A6:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,7 +505,7 @@
     <col min="5" max="5" width="13.568115" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="14.996338" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="20.423584" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -593,7 +599,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>23</v>
@@ -616,13 +622,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>23</v>
@@ -634,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -651,7 +657,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>23</v>
@@ -680,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>23</v>
@@ -703,13 +709,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>23</v>
@@ -721,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="I12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -738,7 +744,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>23</v>
@@ -750,35 +756,6 @@
         <v>25</v>
       </c>
       <c r="I13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="4">
         <v>2</v>
       </c>
     </row>
